--- a/medicine/Enfance/Albertine_Zullo/Albertine_Zullo.xlsx
+++ b/medicine/Enfance/Albertine_Zullo/Albertine_Zullo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albertine Zullo, nom d'alliance d'Albertine Gros, signant également sous le pseudonyme d'Albertine, née le 1er décembre 1967 à Dardagny (Suisse), est une dessinatrice et illustratrice[1] suisse, spécialisée dans l'illustration de livres jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albertine Zullo, nom d'alliance d'Albertine Gros, signant également sous le pseudonyme d'Albertine, née le 1er décembre 1967 à Dardagny (Suisse), est une dessinatrice et illustratrice suisse, spécialisée dans l'illustration de livres jeunesse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formée à l'école des arts décoratifs et à l'École supérieure d'art visuel (ESAV) de Genève, elle débute en 1990 dans la sérigraphie et l'illustration[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formée à l'école des arts décoratifs et à l'École supérieure d'art visuel (ESAV) de Genève, elle débute en 1990 dans la sérigraphie et l'illustration. 
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1990 elle ouvre son atelier de sérigraphie[3]. Elle enseigne à la Haute École d'art et de design Genève depuis 1996[2].
-Elle coopère souvent avec son mari Germano Zullo, écrivain et poète[4],[5]. En 2016, ils ont publié ensemble plus de vingt albums de jeunesse aux éditions La Joie de lire, ainsi que des livres érotiques aux éditions Humus[6]. Ils ont également réalisé des films d'animations, tels que Le Génie de la boîte de raviolis[7],[8]. 
-En 2016 elle expose dans le cadre d'Art7[9].
-En 2019, elle fait partie de l'équipe des dessinatrices du nouveau mensuel féministe satirique Siné Madame[10], dès son lancement.
-En 2020, elle est couronnée par le Prix Hans-Christian-Andersen[11], dans la catégorie Illustration, prix international danois. Elle était sélectionnée[12] et finaliste[11], en 2018.
-En 2021 et 2022, elle est sélectionnée pour le prix suédois international, le Prix commémoratif Astrid-Lindgren[13]. 
-Elle expose au musée de Carouge[14] en 2021.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990 elle ouvre son atelier de sérigraphie. Elle enseigne à la Haute École d'art et de design Genève depuis 1996.
+Elle coopère souvent avec son mari Germano Zullo, écrivain et poète,. En 2016, ils ont publié ensemble plus de vingt albums de jeunesse aux éditions La Joie de lire, ainsi que des livres érotiques aux éditions Humus. Ils ont également réalisé des films d'animations, tels que Le Génie de la boîte de raviolis,. 
+En 2016 elle expose dans le cadre d'Art7.
+En 2019, elle fait partie de l'équipe des dessinatrices du nouveau mensuel féministe satirique Siné Madame, dès son lancement.
+En 2020, elle est couronnée par le Prix Hans-Christian-Andersen, dans la catégorie Illustration, prix international danois. Elle était sélectionnée et finaliste, en 2018.
+En 2021 et 2022, elle est sélectionnée pour le prix suédois international, le Prix commémoratif Astrid-Lindgren. 
+Elle expose au musée de Carouge en 2021.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marta et la bicyclette, avec Germano Zullo, La Joie de lire, 1999
 Marta au pays des montgolfières, avec Germano Zullo ,La Joie de lire , 2001
@@ -591,24 +609,24 @@
 Le Chat botté, conte de Charles Perrault, éd. La Joie de Lire, 2009
 Le Grand Couturier Raphaël, avec de Germano Zullo, éd. La Joie de Lire, 2009
 Les Oiseaux, avec Germano Zullo, éd. La Joie de Lire, 2010
-Les Gratte-ciel[15], avec Germano Zullo, éd. La Joie de Lire, 2011
+Les Gratte-ciel, avec Germano Zullo, éd. La Joie de Lire, 2011
 Ligne 135, avec Germano Zullo, éd. La Joie de Lire, 2012
 Dada, avec Germano Zullo, éd. La Joie de Lire, 2013
 Lumières, l’encyclopédie revisitée, éd. de l’Édune, 2013
 La Catastrophe, galerie Art3, 2013
 Circus, éditions A pas de Loup, 2014
-Bimbi, coll. « Hors norme », éd. La Joie de Lire, 2014[16] - ouvrage sans texte
+Bimbi, coll. « Hors norme », éd. La Joie de Lire, 2014 - ouvrage sans texte
 Mon tout petit, texte de Germano Zullo, La Joie de lire, 2015
-La mer est ronde[17], texte de Sylvie Neeman, La Joie de lire, 2015
-Le Président du monde, avec Germano Zullo, La Joie de lire[18], 2016
+La mer est ronde, texte de Sylvie Neeman, La Joie de lire, 2015
+Le Président du monde, avec Germano Zullo, La Joie de lire, 2016
 Des mots pour la nuit, avec Annie Agopian, éd. La Joie de lire, 2017
 J'te kiffe , je t'aime , avec Mariette Darrigrand , gallimard , 2017
-Ils arrivent ![19], texte de Sylvie Neeman, la Joie de lire, 2018
+Ils arrivent !, texte de Sylvie Neeman, la Joie de lire, 2018
 Déguisé, La joie de lire , 2019
 Séraphine : L'anniversaire, La joie de lire , 2020
 Les bottes à Splatchhh ... et autres mini-délices inquiétants, avec Annie Agopian, A pas de loup, 2020
 Toute une vie à écrire : Corinna Bille, texte de Sylvie Neeman, la Joie de lire, 2020
-Séraphine à l'école[20], La Joie de lire, 2023</t>
+Séraphine à l'école, La Joie de lire, 2023</t>
         </is>
       </c>
     </row>
@@ -636,9 +654,11 @@
           <t>Films d’animation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Chambre 69, réalisé par Claude Barras, 2012[16]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chambre 69, réalisé par Claude Barras, 2012
 Le Génie de la boîte de raviolis, adapté par Claude Barras, 2005</t>
         </is>
       </c>
@@ -667,20 +687,22 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pomme d'Or 1999 de la Biennale d'illustration de Bratislava pour son livre Marta et la bicyclette[2],[21],[22]
-Prix suisse jeunesse et médias 2009[23],[24]
-(international) « Honour List » 2010[25] de l' IBBY, Catégorie Illustrations pour La Rumeur de Venise, sur un texte de Germano Zullo
- Prix Sorcières 2011 pour Les Oiseaux avec Germano Zullo[26]
- Prix du New York Times Best Illustrated children's book Award 2012 pour Les Oiseaux[27]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pomme d'Or 1999 de la Biennale d'illustration de Bratislava pour son livre Marta et la bicyclette
+Prix suisse jeunesse et médias 2009,
+(international) « Honour List » 2010 de l' IBBY, Catégorie Illustrations pour La Rumeur de Venise, sur un texte de Germano Zullo
+ Prix Sorcières 2011 pour Les Oiseaux avec Germano Zullo
+ Prix du New York Times Best Illustrated children's book Award 2012 pour Les Oiseaux
 Prix Crescer de São Paulo pour Les Oiseaux en 2014
 Prix Enfantaisie pour Dada en 2014
-(international) « Honour List » 2016[28] de l' IBBY, Catégorie Illustrations pour Mon tout petit, sur un texte de Germano Zullo
+(international) « Honour List » 2016 de l' IBBY, Catégorie Illustrations pour Mon tout petit, sur un texte de Germano Zullo
  Prix BolognaRagazzi 2016 catégorie Fiction pour Mon tout petit, texte de Germano Zullo, illustrations de Albertine Zullo
- Sélection Suisse et Finaliste du Prix Hans-Christian-Andersen 2018, dans la catégorie Illustration[12],[11]
- Prix Hans-Christian-Andersen 2020, dans la catégorie Illustration[11]
- Sélection pour le Prix commémoratif Astrid-Lindgren 2021 et 2022[13]</t>
+ Sélection Suisse et Finaliste du Prix Hans-Christian-Andersen 2018, dans la catégorie Illustration,
+ Prix Hans-Christian-Andersen 2020, dans la catégorie Illustration
+ Sélection pour le Prix commémoratif Astrid-Lindgren 2021 et 2022</t>
         </is>
       </c>
     </row>
